--- a/data/trans_camb/P20B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 28,31</t>
+          <t>-28,5; 29,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 34,4</t>
+          <t>-22,06; 31,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 35,39</t>
+          <t>-15,88; 35,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 32,62</t>
+          <t>-12,0; 33,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 7,9</t>
+          <t>-27,24; 8,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 10,67</t>
+          <t>-27,21; 10,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 21,89</t>
+          <t>-16,53; 22,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 14,47</t>
+          <t>-20,83; 13,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 19,4</t>
+          <t>-13,78; 18,28</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,72; 229,59</t>
+          <t>-71,45; 198,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,01; 204,63</t>
+          <t>-57,68; 180,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 252,04</t>
+          <t>-35,48; 215,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,81; 790,76</t>
+          <t>-59,91; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-86,0; —</t>
+          <t>-88,62; 375,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 157,62</t>
+          <t>-47,86; 174,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 110,36</t>
+          <t>-64,77; 99,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 147,84</t>
+          <t>-42,22; 139,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 11,66</t>
+          <t>-33,65; 13,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 26,55</t>
+          <t>-24,3; 26,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 39,49</t>
+          <t>-14,81; 37,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 16,57</t>
+          <t>-18,32; 17,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 34,01</t>
+          <t>-9,89; 34,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 32,35</t>
+          <t>-6,22; 31,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 11,06</t>
+          <t>-18,07; 9,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 23,94</t>
+          <t>-7,94; 25,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 29,71</t>
+          <t>-1,67; 29,57</t>
         </is>
       </c>
     </row>
@@ -1012,42 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,16; —</t>
+          <t>-81,83; 527,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,18; 875,59</t>
+          <t>-52,11; 587,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,57; 298,27</t>
+          <t>-81,68; 455,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,75; 852,86</t>
+          <t>-50,29; 708,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 763,43</t>
+          <t>-39,42; 705,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,67; 153,86</t>
+          <t>-79,56; 127,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 331,45</t>
+          <t>-44,04; 304,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 321,94</t>
+          <t>-13,97; 365,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 16,71</t>
+          <t>-33,34; 16,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 24,98</t>
+          <t>-30,06; 23,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 31,84</t>
+          <t>-20,48; 32,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 36,65</t>
+          <t>-17,17; 36,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 56,36</t>
+          <t>-5,1; 59,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 33,77</t>
+          <t>-15,64; 36,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 19,53</t>
+          <t>-17,95; 19,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 28,6</t>
+          <t>-10,82; 29,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 30,09</t>
+          <t>-7,79; 29,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 87,82</t>
+          <t>-63,98; 89,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,91; 137,03</t>
+          <t>-56,45; 110,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,79; 139,47</t>
+          <t>-36,81; 160,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-61,2; 864,47</t>
+          <t>-59,95; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 1022,65</t>
+          <t>-32,37; 1075,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,43; 531,76</t>
+          <t>-61,17; 731,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,1; 110,46</t>
+          <t>-45,58; 107,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 178,86</t>
+          <t>-31,16; 185,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 181,91</t>
+          <t>-22,79; 176,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 25,5</t>
+          <t>-6,82; 24,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 35,52</t>
+          <t>-1,16; 34,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 16,43</t>
+          <t>-12,46; 17,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 13,91</t>
+          <t>-13,16; 12,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 16,3</t>
+          <t>-13,39; 13,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 9,95</t>
+          <t>-15,06; 10,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 14,14</t>
+          <t>-5,22; 13,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 19,47</t>
+          <t>-3,02; 18,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 10,01</t>
+          <t>-10,02; 10,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 185,21</t>
+          <t>-22,1; 185,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 279,49</t>
+          <t>-5,38; 268,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 116,1</t>
+          <t>-42,29; 134,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 115,79</t>
+          <t>-53,03; 104,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 159,53</t>
+          <t>-50,82; 117,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,13; 88,12</t>
+          <t>-58,8; 91,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,09; 94,13</t>
+          <t>-21,47; 92,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 133,32</t>
+          <t>-11,35; 121,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 66,45</t>
+          <t>-38,31; 64,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 31,08</t>
+          <t>-22,45; 32,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 36,31</t>
+          <t>-22,87; 36,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 26,75</t>
+          <t>-25,51; 26,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 28,76</t>
+          <t>-4,43; 31,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 38,4</t>
+          <t>-1,45; 38,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 28,87</t>
+          <t>-6,66; 27,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 26,11</t>
+          <t>-3,08; 24,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 31,63</t>
+          <t>-2,96; 31,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 22,32</t>
+          <t>-7,44; 21,71</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 286,93</t>
+          <t>-47,88; 273,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 258,22</t>
+          <t>-55,07; 288,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,41; 244,66</t>
+          <t>-52,33; 225,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 265,71</t>
+          <t>-14,39; 282,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 325,29</t>
+          <t>-8,09; 296,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 217,33</t>
+          <t>-20,92; 248,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 177,72</t>
+          <t>-9,51; 164,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 212,94</t>
+          <t>-9,83; 196,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 140,01</t>
+          <t>-22,58; 142,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-52,45; 63,6</t>
+          <t>-47,29; 63,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-87,99; 24,44</t>
+          <t>-88,0; 24,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-87,03; 66,1</t>
+          <t>-100,0; 55,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 12,61</t>
+          <t>-15,74; 11,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 12,51</t>
+          <t>-15,61; 12,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 20,05</t>
+          <t>-15,28; 21,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 14,12</t>
+          <t>-12,52; 13,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 10,11</t>
+          <t>-16,75; 10,91</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 19,0</t>
+          <t>-14,57; 20,56</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 71,59</t>
+          <t>-52,06; 68,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 78,13</t>
+          <t>-53,95; 69,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-52,75; 111,27</t>
+          <t>-53,83; 126,43</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 85,33</t>
+          <t>-40,87; 78,34</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 58,11</t>
+          <t>-55,23; 65,37</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-49,97; 120,68</t>
+          <t>-49,89; 114,66</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 13,22</t>
+          <t>-6,27; 14,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 18,37</t>
+          <t>-2,81; 17,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 17,24</t>
+          <t>-2,15; 17,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 11,51</t>
+          <t>-2,48; 11,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,1</t>
+          <t>-3,16; 11,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 9,59</t>
+          <t>-4,18; 10,57</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 9,96</t>
+          <t>-1,44; 10,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 12,17</t>
+          <t>-1,01; 11,73</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 11,85</t>
+          <t>-0,62; 11,14</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 62,89</t>
+          <t>-20,27; 72,99</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 83,04</t>
+          <t>-9,03; 80,31</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 83,18</t>
+          <t>-7,39; 88,49</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 69,22</t>
+          <t>-10,87; 67,44</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 72,99</t>
+          <t>-14,03; 67,62</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 57,87</t>
+          <t>-17,95; 65,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 53,55</t>
+          <t>-5,7; 54,18</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 63,27</t>
+          <t>-3,63; 60,56</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 61,12</t>
+          <t>-2,8; 57,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
